--- a/144F20/Topic 4/MA2PracticeIncomeProjection.xlsx
+++ b/144F20/Topic 4/MA2PracticeIncomeProjection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{5C59133F-278C-4DE2-B03F-A3288D4F7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB9F781-B5A6-4135-A9EB-E4BFC55FC150}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5C59133F-278C-4DE2-B03F-A3288D4F7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B55B0-6B13-4592-85D3-929A5F4031CD}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1164" windowWidth="17400" windowHeight="11340" xr2:uid="{1F5830A4-E866-4CA9-84DB-696DC6FA58AF}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{1F5830A4-E866-4CA9-84DB-696DC6FA58AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflation Rate &amp; Projection" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -586,6 +586,17 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -622,17 +633,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A634F11-7084-4FE9-B4F6-622DD42176E5}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,40 +1094,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="63.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18">
-        <v>251.971</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="18"/>
+      <c r="G3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19">
-        <v>299.17</v>
-      </c>
+      <c r="B4" s="19"/>
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1139,10 +1135,7 @@
       <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="20">
-        <f>(B4-B3)/B3</f>
-        <v>0.18731917561941658</v>
-      </c>
+      <c r="B5" s="20"/>
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1152,10 +1145,10 @@
     </row>
     <row r="6" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="35"/>
       <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1164,13 +1157,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
@@ -1182,9 +1175,7 @@
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="33">
-        <v>14</v>
-      </c>
+      <c r="B8" s="21"/>
       <c r="D8" s="10"/>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -1197,20 +1188,14 @@
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="34">
-        <f>B8*(1+B5)</f>
-        <v>16.622468458671833</v>
-      </c>
+      <c r="B9" s="22"/>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="35">
-        <f>40*B9</f>
-        <v>664.8987383468733</v>
-      </c>
+      <c r="B10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/144F20/Topic 4/MA2PracticeIncomeProjection.xlsx
+++ b/144F20/Topic 4/MA2PracticeIncomeProjection.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail.sharepoint.com/sites/MathematicsProgramFacultyStaff-MATOFTF/Shared Documents/MATOFTF/ALEKS/DQ Templates and Instructions/Topic 2 DQ 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5C59133F-278C-4DE2-B03F-A3288D4F7075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F15B55B0-6B13-4592-85D3-929A5F4031CD}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{273EBCEE-AF6D-4EE9-8309-6BECE25E8225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269EFCB8-9081-4167-A3FF-92709DDCBA56}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10560" xr2:uid="{1F5830A4-E866-4CA9-84DB-696DC6FA58AF}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="11244" xr2:uid="{1F5830A4-E866-4CA9-84DB-696DC6FA58AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inflation Rate &amp; Projection" sheetId="1" r:id="rId1"/>
+    <sheet name="Goals and Instructions" sheetId="5" r:id="rId1"/>
+    <sheet name="Inflation Rate &amp; Projection" sheetId="1" r:id="rId2"/>
+    <sheet name="solution" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="CPI" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Random" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Halo" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Current Hourly Rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Legend</t>
   </si>
@@ -72,19 +74,196 @@
     <t>Make no changes</t>
   </si>
   <si>
-    <t>CPI value for January 2020</t>
-  </si>
-  <si>
-    <t>CPI value for January 2023</t>
-  </si>
-  <si>
-    <t>3-Year Inflation Rate based on CPI values from January 2020 and January 2023</t>
-  </si>
-  <si>
-    <t>Projected Hourly Rate in January 2023 based on the 3-Year Inflation Rate</t>
-  </si>
-  <si>
     <t>Projected Weekly Income</t>
+  </si>
+  <si>
+    <t>Video Explanation</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Rand1</t>
+  </si>
+  <si>
+    <t>Rand2</t>
+  </si>
+  <si>
+    <t>Rand3</t>
+  </si>
+  <si>
+    <t>Rand4</t>
+  </si>
+  <si>
+    <t>Rand5</t>
+  </si>
+  <si>
+    <t>Rand6</t>
+  </si>
+  <si>
+    <t>Rand7</t>
+  </si>
+  <si>
+    <t>Rand8</t>
+  </si>
+  <si>
+    <t>Rand9</t>
+  </si>
+  <si>
+    <t>Rand10</t>
+  </si>
+  <si>
+    <t>Rand11</t>
+  </si>
+  <si>
+    <t>Rand12</t>
+  </si>
+  <si>
+    <t>Rand13</t>
+  </si>
+  <si>
+    <t>Rand14</t>
+  </si>
+  <si>
+    <t>Rand15</t>
+  </si>
+  <si>
+    <t>Rand16</t>
+  </si>
+  <si>
+    <t>Rand17</t>
+  </si>
+  <si>
+    <t>Rand18</t>
+  </si>
+  <si>
+    <t>Rand19</t>
+  </si>
+  <si>
+    <t>Rand20</t>
+  </si>
+  <si>
+    <t>Rand21</t>
+  </si>
+  <si>
+    <t>Rand22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your name in C2  ⇒ </t>
+  </si>
+  <si>
+    <t>At least five letters.</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Your Name Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part 1: Using the CPI values from the website below, find the yearly inflation rate between January 2021 and January 2022.       
+1. Go to Bureau of Labor Statistics page link https://data.bls.gov/cgi-bin/surveymost?cu       
+2. Check the box to the left of text "U.S. city average, All items - CUUR0000SA0"
+3. Press the "Retrieve Data" button at the bottom of the list and a table of CPI values will appear.
+4. Record your CPI values in the green cells.
+5. Find the 3-Year and 1-Year Inflation Rates based on the CPI values.
+6. Format CPI values as Numbers with 3 decimal places and the Inflation Rates as a Percentage with 2 decimal places.                                                                           </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Current Hourly Rate (P)</t>
+  </si>
+  <si>
+    <t>P*(1 + r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P*(1 + r)³ </t>
+  </si>
+  <si>
+    <t>New/Original - 1</t>
+  </si>
+  <si>
+    <t>Excel Skills Learned</t>
+  </si>
+  <si>
+    <t>Math Skills Learned</t>
+  </si>
+  <si>
+    <t>There are no new Excel skills here.</t>
+  </si>
+  <si>
+    <t>1. Percentage change. In particular, inflation rate as the percent change in CPI.</t>
+  </si>
+  <si>
+    <t>2. Projecting future income based on the inflation rate. Projecting a future value based on percentage change.</t>
   </si>
   <si>
     <r>
@@ -96,7 +275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Part 2:</t>
+      <t>Instructions</t>
     </r>
     <r>
       <rPr>
@@ -106,41 +285,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Based on the inflation rate, if you made $14/hour in January 2020, how much should you make in January 2023 to keep up with inflation? How much money would that be a week if you worked 40 hours a week?
-Format all cells as Currency with 2 decimal places.</t>
+      <t>: Open the tab labeled "Inflation Rate &amp; Projection" and complete the tasks indicated there. Start by entering your name where indicated. Pay attention to the legend and note that the sheet is self-checking.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Part 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Using the CPI values from the website below, find the yearly inflation rate between January 2021 and January 2022.       
-1. Go to Bureau of Labor Statistics page link https://data.bls.gov/cgi-bin/surveymost?cu       
-2. Check the box to the left of text "U.S. city average, All items - CUUR0000SA0"
-3. Press the "Retrieve Data" button at the bottom of the list and a table of CPI values will appear.
-4. Record your CPI values in the green cells.
-5. Find the 3-Year Inflation rate based on the CPI values for January 2020 and January 2023.
-6. Format CPI values as Numbers with 3 decimal places and the inflation rate as a Percentage with 2 decimal places.                                                                           </t>
-    </r>
-  </si>
-  <si>
-    <t>Video Explanation</t>
+    <t>Download the Excel to complete the template.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +300,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +336,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Baguet Script"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -509,13 +692,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,28 +799,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,14 +819,114 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -614,26 +936,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -641,7 +978,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -658,16 +1010,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1357630</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>109817</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>199278</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -683,8 +1035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="1581150"/>
-          <a:ext cx="884517" cy="319928"/>
+          <a:off x="5497830" y="1078230"/>
+          <a:ext cx="1002627" cy="311038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -776,6 +1128,321 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1357630</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F447EF-6394-4098-90F7-BD462A0A3B36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495290" y="1075690"/>
+          <a:ext cx="1000087" cy="308498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="74000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="83000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="45000"/>
+                <a:lumOff val="55000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="30000"/>
+                <a:lumOff val="70000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="13500000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d contourW="25400" prstMaterial="softEdge">
+          <a:bevelB w="114300" prst="hardEdge"/>
+          <a:extrusionClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:extrusionClr>
+          <a:contourClr>
+            <a:schemeClr val="accent1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CPI Values</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11978640" cy="6888480"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19873F7A-03A1-E9E1-9890-FC4B766438B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175260" y="76200"/>
+          <a:ext cx="11978640" cy="6888480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1577868" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88A0158-B45F-4F29-B797-14DA4E9443CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1088390" y="636905"/>
+          <a:ext cx="1577868" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This generates the seed.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1554785" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7477775-4DE8-477A-AC6E-CCDC220A838C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3170555" y="38100"/>
+          <a:ext cx="1554785" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A table of some primes!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1075,140 +1742,3156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A634F11-7084-4FE9-B4F6-622DD42176E5}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF0CB51-28CD-4D4D-9C7F-D2DE0B4D05F1}">
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="2:9" ht="15" thickBot="1"/>
+    <row r="3" spans="2:9" ht="15" thickBot="1">
+      <c r="B3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1">
+      <c r="B5" s="44"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1">
+      <c r="B6" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="2:9" ht="29.4" thickBot="1">
+      <c r="B7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="2:9" ht="28.8">
+      <c r="B8" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A634F11-7084-4FE9-B4F6-622DD42176E5}">
+  <dimension ref="B1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1">
+      <c r="B2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1"/>
+    <row r="4" spans="2:10" ht="14.4" customHeight="1" thickTop="1">
+      <c r="B4" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B5" s="49"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="51"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B6" s="49"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="51"/>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B7" s="49"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="51"/>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B8" s="49"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="51"/>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B9" s="49"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="51"/>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" customHeight="1" thickTop="1">
+      <c r="B10" s="49"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B11" s="49"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B12" s="49"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="19" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H26)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="E15" s="19" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H26)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="20" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H28)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="E16" s="20" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H27)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:7" ht="43.95" customHeight="1" thickBot="1">
+      <c r="B17" s="21" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","3-Year Inflation Rate (r) based on CPI values from "&amp;Random!H23&amp;" "&amp;Random!H20 +2017&amp;" and "&amp;Random!H23&amp;" "&amp;Random!H20 +2017+3)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","1-Year Inflation Rate (r) based on CPI values from "&amp;Random!H23&amp;" "&amp;Random!H20 +2017&amp;" and "&amp;Random!H23&amp;" "&amp;Random!H20 +2017+1)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1">
+      <c r="B18" s="1"/>
+      <c r="D18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="G3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="G4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1"/>
-      <c r="C6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="D8" s="10"/>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="2:7" ht="72" customHeight="1" thickBot="1">
+      <c r="B19" s="57" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Part 2: Based on the Inflation Rates, if you made $"&amp;Random!H22&amp;"/hour in "&amp;Random!H23&amp;" "&amp;Random!H26&amp;", how much should you make in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" to keep up with inflation? How much money would that be a week if you worked 40 hours a week?"&amp;"
+Format all cells as Currency with 2 decimal places.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="2:7" ht="27.9" customHeight="1" thickBot="1">
+      <c r="B20" s="42" t="str">
+        <f ca="1">Random!H23&amp;" "&amp;Random!H26&amp;" Hourly Rate (P)"</f>
+        <v>March 2017 Hourly Rate (P)</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="43.95" customHeight="1">
+      <c r="B21" s="39" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Projected Hourly Rate in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" based on the 3-Year Inflation Rate.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="40" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Projected Hourly Rate in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" based on the 1-Year Inflation Rate.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1">
+      <c r="B22" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="23"/>
+      <c r="C22" s="16"/>
+      <c r="E22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B4:G13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C17 C21:C22 F17 F21:F22">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(OR(ISBLANK(C17),_xlfn.ISFORMULA(C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C6:D6" r:id="rId1" display="Video Explanation" xr:uid="{DEFA6A9B-2D2A-4970-AE43-A2639283B9E9}"/>
+    <hyperlink ref="D18:E18" r:id="rId1" display="Video Explanation" xr:uid="{DEFA6A9B-2D2A-4970-AE43-A2639283B9E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{2ECE740E-17F0-4034-913A-FE84E6EFB7E9}">
+            <xm:f>C15=solution!C15</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C15:C17 C20:C22 F15:F17 F21:F22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03631F-4AA9-4151-A134-C642E1B2C8F1}">
+  <dimension ref="B1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1">
+      <c r="B2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="55" t="str">
+        <f>'Inflation Rate &amp; Projection'!C2</f>
+        <v>Your Name Here</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1"/>
+    <row r="4" spans="2:10" ht="14.4" customHeight="1" thickTop="1">
+      <c r="B4" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B5" s="49"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="51"/>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B6" s="49"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="51"/>
+      <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B7" s="49"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="51"/>
+      <c r="I7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B8" s="49"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="51"/>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B9" s="49"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="51"/>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" customHeight="1" thickTop="1">
+      <c r="B10" s="49"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B11" s="49"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.4" customHeight="1">
+      <c r="B12" s="49"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="2:10" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="19" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H26)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C15" s="11">
+        <f ca="1">VLOOKUP(Random!H26,CPI!A2:M12,Random!H21+1)</f>
+        <v>243.80099999999999</v>
+      </c>
+      <c r="E15" s="19" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H26)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F15" s="11">
+        <f ca="1">VLOOKUP(Random!H26,CPI!A2:M12,Random!H21+1)</f>
+        <v>243.80099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="20" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H28)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C16" s="12">
+        <f ca="1">VLOOKUP(Random!H28,CPI!A2:M12,Random!H21+1)</f>
+        <v>258.11500000000001</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","CPI value for "&amp;Random!H23&amp;" "&amp;Random!H27)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F16" s="12">
+        <f ca="1">VLOOKUP(Random!H27,CPI!A2:M12,Random!H21+1)</f>
+        <v>249.554</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="43.95" customHeight="1" thickBot="1">
+      <c r="B17" s="21" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","3-Year Inflation Rate (r) based on CPI values from "&amp;Random!H23&amp;" "&amp;Random!H20 +2020&amp;" and "&amp;Random!H23&amp;" "&amp;Random!H28)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C17" s="13">
+        <f ca="1">C16/C15-1</f>
+        <v>5.8711818245208214E-2</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","1-Year Inflation Rate based on CPI values from "&amp;Random!H23&amp;" "&amp;Random!H20 +2020&amp;" and "&amp;Random!H23&amp;" "&amp;Random!H20 +2020+1)</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F17" s="13">
+        <f ca="1">F16/F15-1</f>
+        <v>2.3597114039729084E-2</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="26.4" thickBot="1">
+      <c r="B18" s="1"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="2:7" ht="72" customHeight="1" thickBot="1">
+      <c r="B19" s="57" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Part 2: Based on the Inflation Rates, if you made $"&amp;Random!H22&amp;"/hour in "&amp;Random!H23&amp;" "&amp;Random!H26&amp;", how much should you make in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" to keep up with inflation? How much money would that be a week if you worked 40 hours a week?"&amp;"
+Format all cells as Currency with 2 decimal places.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="2:7" ht="27.9" customHeight="1" thickBot="1">
+      <c r="B20" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14">
+        <f ca="1">Random!H22</f>
+        <v>16</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="43.95" customHeight="1">
+      <c r="B21" s="39" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Projected Hourly Rate in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" based on the 3-Year Inflation Rate.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="C21" s="15">
+        <f ca="1">C20*(1+C17)</f>
+        <v>16.939389091923331</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="40" t="str">
+        <f>IF($C$2="Your Name Here","Enter Your Name in C2","Projected Hourly Rate in "&amp;Random!H23&amp;" "&amp;Random!H28&amp;" based on the 1-Year Inflation Rate.")</f>
+        <v>Enter Your Name in C2</v>
+      </c>
+      <c r="F21" s="38">
+        <f ca="1">C20*(1+F17)^3</f>
+        <v>17.159599246827131</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1">
+      <c r="B22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16">
+        <f ca="1">C21*40</f>
+        <v>677.57556367693326</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="16">
+        <f ca="1">F21*40</f>
+        <v>686.38396987308522</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="oFt+E9xTLID5RHC/9VrQdk+RQxJHZwLws+zCqEgrnh8A2b+sJ1Xts125byKymWhfyAN46eseysmcE2GMZEMhFQ==" saltValue="oZWgiAoRwKFSPn7aSzVeuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B4:G13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0212CEF0-2D2C-4D1A-885C-B0174BA7270B}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>230.28</v>
+      </c>
+      <c r="C2">
+        <v>232.166</v>
+      </c>
+      <c r="D2">
+        <v>232.773</v>
+      </c>
+      <c r="E2">
+        <v>232.53100000000001</v>
+      </c>
+      <c r="F2">
+        <v>232.94499999999999</v>
+      </c>
+      <c r="G2">
+        <v>233.50399999999999</v>
+      </c>
+      <c r="H2">
+        <v>233.596</v>
+      </c>
+      <c r="I2">
+        <v>233.87700000000001</v>
+      </c>
+      <c r="J2">
+        <v>234.149</v>
+      </c>
+      <c r="K2">
+        <v>233.54599999999999</v>
+      </c>
+      <c r="L2">
+        <v>233.06899999999999</v>
+      </c>
+      <c r="M2">
+        <v>233.04900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3">
+        <v>233.916</v>
+      </c>
+      <c r="C3">
+        <v>234.78100000000001</v>
+      </c>
+      <c r="D3">
+        <v>236.29300000000001</v>
+      </c>
+      <c r="E3">
+        <v>237.072</v>
+      </c>
+      <c r="F3">
+        <v>237.9</v>
+      </c>
+      <c r="G3">
+        <v>238.34299999999999</v>
+      </c>
+      <c r="H3">
+        <v>238.25</v>
+      </c>
+      <c r="I3">
+        <v>237.852</v>
+      </c>
+      <c r="J3">
+        <v>238.03100000000001</v>
+      </c>
+      <c r="K3">
+        <v>237.43299999999999</v>
+      </c>
+      <c r="L3">
+        <v>236.15100000000001</v>
+      </c>
+      <c r="M3">
+        <v>234.81200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>233.70699999999999</v>
+      </c>
+      <c r="C4">
+        <v>234.72200000000001</v>
+      </c>
+      <c r="D4">
+        <v>236.119</v>
+      </c>
+      <c r="E4">
+        <v>236.59899999999999</v>
+      </c>
+      <c r="F4">
+        <v>237.80500000000001</v>
+      </c>
+      <c r="G4">
+        <v>238.63800000000001</v>
+      </c>
+      <c r="H4">
+        <v>238.654</v>
+      </c>
+      <c r="I4">
+        <v>238.316</v>
+      </c>
+      <c r="J4">
+        <v>237.94499999999999</v>
+      </c>
+      <c r="K4">
+        <v>237.83799999999999</v>
+      </c>
+      <c r="L4">
+        <v>237.33600000000001</v>
+      </c>
+      <c r="M4">
+        <v>236.52500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5">
+        <v>236.916</v>
+      </c>
+      <c r="C5">
+        <v>237.11099999999999</v>
+      </c>
+      <c r="D5">
+        <v>238.13200000000001</v>
+      </c>
+      <c r="E5">
+        <v>239.261</v>
+      </c>
+      <c r="F5">
+        <v>240.22900000000001</v>
+      </c>
+      <c r="G5">
+        <v>241.018</v>
+      </c>
+      <c r="H5">
+        <v>240.62799999999999</v>
+      </c>
+      <c r="I5">
+        <v>240.84899999999999</v>
+      </c>
+      <c r="J5">
+        <v>241.428</v>
+      </c>
+      <c r="K5">
+        <v>241.72900000000001</v>
+      </c>
+      <c r="L5">
+        <v>241.35300000000001</v>
+      </c>
+      <c r="M5">
+        <v>241.43199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6">
+        <v>242.839</v>
+      </c>
+      <c r="C6">
+        <v>243.60300000000001</v>
+      </c>
+      <c r="D6">
+        <v>243.80099999999999</v>
+      </c>
+      <c r="E6">
+        <v>244.524</v>
+      </c>
+      <c r="F6">
+        <v>244.733</v>
+      </c>
+      <c r="G6">
+        <v>244.95500000000001</v>
+      </c>
+      <c r="H6">
+        <v>244.786</v>
+      </c>
+      <c r="I6">
+        <v>245.51900000000001</v>
+      </c>
+      <c r="J6">
+        <v>246.81899999999999</v>
+      </c>
+      <c r="K6">
+        <v>246.66300000000001</v>
+      </c>
+      <c r="L6">
+        <v>246.66900000000001</v>
+      </c>
+      <c r="M6">
+        <v>246.524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7">
+        <v>247.86699999999999</v>
+      </c>
+      <c r="C7">
+        <v>248.99100000000001</v>
+      </c>
+      <c r="D7">
+        <v>249.554</v>
+      </c>
+      <c r="E7">
+        <v>250.54599999999999</v>
+      </c>
+      <c r="F7">
+        <v>251.58799999999999</v>
+      </c>
+      <c r="G7">
+        <v>251.989</v>
+      </c>
+      <c r="H7">
+        <v>252.006</v>
+      </c>
+      <c r="I7">
+        <v>252.14599999999999</v>
+      </c>
+      <c r="J7">
+        <v>252.43899999999999</v>
+      </c>
+      <c r="K7">
+        <v>252.88499999999999</v>
+      </c>
+      <c r="L7">
+        <v>252.03800000000001</v>
+      </c>
+      <c r="M7">
+        <v>251.233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8">
+        <v>251.71199999999999</v>
+      </c>
+      <c r="C8">
+        <v>252.77600000000001</v>
+      </c>
+      <c r="D8">
+        <v>254.202</v>
+      </c>
+      <c r="E8">
+        <v>255.548</v>
+      </c>
+      <c r="F8">
+        <v>256.09199999999998</v>
+      </c>
+      <c r="G8">
+        <v>256.14299999999997</v>
+      </c>
+      <c r="H8">
+        <v>256.57100000000003</v>
+      </c>
+      <c r="I8">
+        <v>256.55799999999999</v>
+      </c>
+      <c r="J8">
+        <v>256.75900000000001</v>
+      </c>
+      <c r="K8">
+        <v>257.346</v>
+      </c>
+      <c r="L8">
+        <v>257.20800000000003</v>
+      </c>
+      <c r="M8">
+        <v>256.97399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>257.971</v>
+      </c>
+      <c r="C9">
+        <v>258.678</v>
+      </c>
+      <c r="D9">
+        <v>258.11500000000001</v>
+      </c>
+      <c r="E9">
+        <v>256.38900000000001</v>
+      </c>
+      <c r="F9">
+        <v>256.39400000000001</v>
+      </c>
+      <c r="G9">
+        <v>257.79700000000003</v>
+      </c>
+      <c r="H9">
+        <v>259.101</v>
+      </c>
+      <c r="I9">
+        <v>259.91800000000001</v>
+      </c>
+      <c r="J9">
+        <v>260.27999999999997</v>
+      </c>
+      <c r="K9">
+        <v>260.38799999999998</v>
+      </c>
+      <c r="L9">
+        <v>260.22899999999998</v>
+      </c>
+      <c r="M9">
+        <v>260.47399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>261.58199999999999</v>
+      </c>
+      <c r="C10">
+        <v>263.01400000000001</v>
+      </c>
+      <c r="D10">
+        <v>264.87700000000001</v>
+      </c>
+      <c r="E10">
+        <v>267.05399999999997</v>
+      </c>
+      <c r="F10">
+        <v>269.19499999999999</v>
+      </c>
+      <c r="G10">
+        <v>271.69600000000003</v>
+      </c>
+      <c r="H10">
+        <v>273.00299999999999</v>
+      </c>
+      <c r="I10">
+        <v>273.56700000000001</v>
+      </c>
+      <c r="J10">
+        <v>274.31</v>
+      </c>
+      <c r="K10">
+        <v>276.589</v>
+      </c>
+      <c r="L10">
+        <v>277.94799999999998</v>
+      </c>
+      <c r="M10">
+        <v>278.80200000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>281.14800000000002</v>
+      </c>
+      <c r="C11">
+        <v>283.71600000000001</v>
+      </c>
+      <c r="D11">
+        <v>287.50400000000002</v>
+      </c>
+      <c r="E11">
+        <v>289.10899999999998</v>
+      </c>
+      <c r="F11">
+        <v>292.29599999999999</v>
+      </c>
+      <c r="G11">
+        <v>296.31099999999998</v>
+      </c>
+      <c r="H11">
+        <v>296.27600000000001</v>
+      </c>
+      <c r="I11">
+        <v>296.17099999999999</v>
+      </c>
+      <c r="J11">
+        <v>296.80799999999999</v>
+      </c>
+      <c r="K11">
+        <v>298.012</v>
+      </c>
+      <c r="L11">
+        <v>297.71100000000001</v>
+      </c>
+      <c r="M11">
+        <v>296.79700000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>299.17</v>
+      </c>
+      <c r="C12">
+        <v>300.83999999999997</v>
+      </c>
+      <c r="D12">
+        <v>301.83600000000001</v>
+      </c>
+      <c r="E12">
+        <v>303.363</v>
+      </c>
+      <c r="F12">
+        <v>304.12700000000001</v>
+      </c>
+      <c r="G12">
+        <v>305.10899999999998</v>
+      </c>
+      <c r="H12">
+        <v>305.69099999999997</v>
+      </c>
+      <c r="I12">
+        <v>307.02600000000001</v>
+      </c>
+      <c r="J12">
+        <v>307.78899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40320ECC-5516-4253-AC02-CA304AF310BF}">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="G1" s="22"/>
+      <c r="H1" s="23">
+        <v>1</v>
+      </c>
+      <c r="I1" s="23">
+        <v>2</v>
+      </c>
+      <c r="J1" s="23">
+        <v>3</v>
+      </c>
+      <c r="K1" s="23">
+        <v>4</v>
+      </c>
+      <c r="L1" s="23">
+        <v>5</v>
+      </c>
+      <c r="M1" s="23">
+        <v>6</v>
+      </c>
+      <c r="N1" s="23">
+        <v>7</v>
+      </c>
+      <c r="O1" s="23">
+        <v>8</v>
+      </c>
+      <c r="P1" s="23">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>10</v>
+      </c>
+      <c r="R1" s="23">
+        <v>11</v>
+      </c>
+      <c r="S1" s="23">
+        <v>12</v>
+      </c>
+      <c r="T1" s="23">
+        <v>13</v>
+      </c>
+      <c r="U1" s="23">
+        <v>14</v>
+      </c>
+      <c r="V1" s="23">
+        <v>15</v>
+      </c>
+      <c r="W1" s="24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+      <c r="H2" s="26">
+        <v>2</v>
+      </c>
+      <c r="I2" s="26">
+        <v>3</v>
+      </c>
+      <c r="J2" s="26">
+        <v>5</v>
+      </c>
+      <c r="K2" s="26">
+        <v>7</v>
+      </c>
+      <c r="L2" s="26">
+        <v>11</v>
+      </c>
+      <c r="M2" s="26">
+        <v>13</v>
+      </c>
+      <c r="N2" s="26">
+        <v>17</v>
+      </c>
+      <c r="O2" s="26">
+        <v>19</v>
+      </c>
+      <c r="P2" s="26">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>29</v>
+      </c>
+      <c r="R2" s="26">
+        <v>947</v>
+      </c>
+      <c r="S2" s="26">
+        <v>953</v>
+      </c>
+      <c r="T2" s="26">
+        <v>967</v>
+      </c>
+      <c r="U2" s="26">
+        <v>971</v>
+      </c>
+      <c r="V2" s="26">
+        <v>977</v>
+      </c>
+      <c r="W2" s="27">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="G3" s="25">
+        <v>2</v>
+      </c>
+      <c r="H3" s="26">
+        <v>31</v>
+      </c>
+      <c r="I3" s="26">
+        <v>37</v>
+      </c>
+      <c r="J3" s="26">
+        <v>41</v>
+      </c>
+      <c r="K3" s="26">
+        <v>43</v>
+      </c>
+      <c r="L3" s="26">
+        <v>47</v>
+      </c>
+      <c r="M3" s="26">
+        <v>53</v>
+      </c>
+      <c r="N3" s="26">
+        <v>59</v>
+      </c>
+      <c r="O3" s="26">
+        <v>61</v>
+      </c>
+      <c r="P3" s="26">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>71</v>
+      </c>
+      <c r="R3" s="26">
+        <v>991</v>
+      </c>
+      <c r="S3" s="26">
+        <v>997</v>
+      </c>
+      <c r="T3" s="26">
+        <v>1009</v>
+      </c>
+      <c r="U3" s="26">
+        <v>1013</v>
+      </c>
+      <c r="V3" s="26">
+        <v>1019</v>
+      </c>
+      <c r="W3" s="27">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
+      <c r="H4" s="26">
+        <v>73</v>
+      </c>
+      <c r="I4" s="26">
+        <v>79</v>
+      </c>
+      <c r="J4" s="26">
+        <v>83</v>
+      </c>
+      <c r="K4" s="26">
+        <v>89</v>
+      </c>
+      <c r="L4" s="26">
+        <v>97</v>
+      </c>
+      <c r="M4" s="26">
+        <v>101</v>
+      </c>
+      <c r="N4" s="26">
+        <v>103</v>
+      </c>
+      <c r="O4" s="26">
+        <v>107</v>
+      </c>
+      <c r="P4" s="26">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>113</v>
+      </c>
+      <c r="R4" s="26">
+        <v>1031</v>
+      </c>
+      <c r="S4" s="26">
+        <v>1033</v>
+      </c>
+      <c r="T4" s="26">
+        <v>1039</v>
+      </c>
+      <c r="U4" s="26">
+        <v>1049</v>
+      </c>
+      <c r="V4" s="26">
+        <v>1051</v>
+      </c>
+      <c r="W4" s="27">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="G5" s="25">
+        <v>4</v>
+      </c>
+      <c r="H5" s="26">
+        <v>127</v>
+      </c>
+      <c r="I5" s="26">
+        <v>131</v>
+      </c>
+      <c r="J5" s="26">
+        <v>137</v>
+      </c>
+      <c r="K5" s="26">
+        <v>139</v>
+      </c>
+      <c r="L5" s="26">
+        <v>149</v>
+      </c>
+      <c r="M5" s="26">
+        <v>151</v>
+      </c>
+      <c r="N5" s="26">
+        <v>157</v>
+      </c>
+      <c r="O5" s="26">
+        <v>163</v>
+      </c>
+      <c r="P5" s="26">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>173</v>
+      </c>
+      <c r="R5" s="26">
+        <v>1993</v>
+      </c>
+      <c r="S5" s="26">
+        <v>1997</v>
+      </c>
+      <c r="T5" s="26">
+        <v>1999</v>
+      </c>
+      <c r="U5" s="26">
+        <v>2003</v>
+      </c>
+      <c r="V5" s="26">
+        <v>2011</v>
+      </c>
+      <c r="W5" s="27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="34">
+        <f>CODE(MID('Inflation Rate &amp; Projection'!C$2,A6,1))</f>
+        <v>89</v>
+      </c>
+      <c r="C6" s="34">
+        <f>MOD(B6,16)</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="34">
+        <f>MOD((B6-C6)/16,16)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="34">
+        <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
+        <v>439</v>
+      </c>
+      <c r="G6" s="25">
+        <v>5</v>
+      </c>
+      <c r="H6" s="26">
+        <v>179</v>
+      </c>
+      <c r="I6" s="26">
+        <v>181</v>
+      </c>
+      <c r="J6" s="26">
+        <v>191</v>
+      </c>
+      <c r="K6" s="26">
+        <v>193</v>
+      </c>
+      <c r="L6" s="26">
+        <v>197</v>
+      </c>
+      <c r="M6" s="26">
+        <v>199</v>
+      </c>
+      <c r="N6" s="26">
+        <v>211</v>
+      </c>
+      <c r="O6" s="26">
+        <v>223</v>
+      </c>
+      <c r="P6" s="26">
+        <v>227</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>229</v>
+      </c>
+      <c r="R6" s="26">
+        <v>2063</v>
+      </c>
+      <c r="S6" s="26">
+        <v>2069</v>
+      </c>
+      <c r="T6" s="26">
+        <v>2081</v>
+      </c>
+      <c r="U6" s="26">
+        <v>2083</v>
+      </c>
+      <c r="V6" s="26">
+        <v>2087</v>
+      </c>
+      <c r="W6" s="27">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="34">
+        <f>CODE(MID('Inflation Rate &amp; Projection'!C$2,A7,1))</f>
+        <v>111</v>
+      </c>
+      <c r="C7" s="34">
+        <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
+        <v>15</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
+        <v>839</v>
+      </c>
+      <c r="G7" s="25">
+        <v>6</v>
+      </c>
+      <c r="H7" s="26">
+        <v>233</v>
+      </c>
+      <c r="I7" s="26">
+        <v>239</v>
+      </c>
+      <c r="J7" s="26">
+        <v>241</v>
+      </c>
+      <c r="K7" s="26">
+        <v>251</v>
+      </c>
+      <c r="L7" s="26">
+        <v>257</v>
+      </c>
+      <c r="M7" s="26">
+        <v>263</v>
+      </c>
+      <c r="N7" s="26">
+        <v>269</v>
+      </c>
+      <c r="O7" s="26">
+        <v>271</v>
+      </c>
+      <c r="P7" s="26">
+        <v>277</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>281</v>
+      </c>
+      <c r="R7" s="26">
+        <v>2131</v>
+      </c>
+      <c r="S7" s="26">
+        <v>2137</v>
+      </c>
+      <c r="T7" s="26">
+        <v>2141</v>
+      </c>
+      <c r="U7" s="26">
+        <v>2143</v>
+      </c>
+      <c r="V7" s="26">
+        <v>2153</v>
+      </c>
+      <c r="W7" s="27">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34">
+        <f>CODE(MID('Inflation Rate &amp; Projection'!C$2,A8,1))</f>
+        <v>117</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="G8" s="25">
+        <v>7</v>
+      </c>
+      <c r="H8" s="26">
+        <v>283</v>
+      </c>
+      <c r="I8" s="26">
+        <v>293</v>
+      </c>
+      <c r="J8" s="26">
+        <v>307</v>
+      </c>
+      <c r="K8" s="26">
+        <v>311</v>
+      </c>
+      <c r="L8" s="26">
+        <v>313</v>
+      </c>
+      <c r="M8" s="26">
+        <v>317</v>
+      </c>
+      <c r="N8" s="26">
+        <v>331</v>
+      </c>
+      <c r="O8" s="26">
+        <v>337</v>
+      </c>
+      <c r="P8" s="26">
+        <v>347</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>349</v>
+      </c>
+      <c r="R8" s="26">
+        <v>2221</v>
+      </c>
+      <c r="S8" s="26">
+        <v>2237</v>
+      </c>
+      <c r="T8" s="26">
+        <v>2239</v>
+      </c>
+      <c r="U8" s="26">
+        <v>2243</v>
+      </c>
+      <c r="V8" s="26">
+        <v>2251</v>
+      </c>
+      <c r="W8" s="27">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="34">
+        <f>CODE(MID('Inflation Rate &amp; Projection'!C$2,A9,1))</f>
+        <v>114</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="G9" s="25">
+        <v>8</v>
+      </c>
+      <c r="H9" s="26">
+        <v>353</v>
+      </c>
+      <c r="I9" s="26">
+        <v>359</v>
+      </c>
+      <c r="J9" s="26">
+        <v>367</v>
+      </c>
+      <c r="K9" s="26">
+        <v>373</v>
+      </c>
+      <c r="L9" s="26">
+        <v>379</v>
+      </c>
+      <c r="M9" s="26">
+        <v>383</v>
+      </c>
+      <c r="N9" s="26">
+        <v>389</v>
+      </c>
+      <c r="O9" s="26">
+        <v>397</v>
+      </c>
+      <c r="P9" s="26">
+        <v>401</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>409</v>
+      </c>
+      <c r="R9" s="26">
+        <v>2293</v>
+      </c>
+      <c r="S9" s="26">
+        <v>2297</v>
+      </c>
+      <c r="T9" s="26">
+        <v>2309</v>
+      </c>
+      <c r="U9" s="26">
+        <v>2311</v>
+      </c>
+      <c r="V9" s="26">
+        <v>2333</v>
+      </c>
+      <c r="W9" s="27">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34">
+        <f>CODE(MID('Inflation Rate &amp; Projection'!C$2,A10,1))</f>
+        <v>32</v>
+      </c>
+      <c r="C10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="25">
+        <v>9</v>
+      </c>
+      <c r="H10" s="26">
+        <v>419</v>
+      </c>
+      <c r="I10" s="26">
+        <v>421</v>
+      </c>
+      <c r="J10" s="26">
+        <v>431</v>
+      </c>
+      <c r="K10" s="26">
+        <v>433</v>
+      </c>
+      <c r="L10" s="26">
+        <v>439</v>
+      </c>
+      <c r="M10" s="26">
+        <v>443</v>
+      </c>
+      <c r="N10" s="26">
+        <v>449</v>
+      </c>
+      <c r="O10" s="26">
+        <v>457</v>
+      </c>
+      <c r="P10" s="26">
+        <v>461</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>463</v>
+      </c>
+      <c r="R10" s="26">
+        <v>2371</v>
+      </c>
+      <c r="S10" s="26">
+        <v>2377</v>
+      </c>
+      <c r="T10" s="26">
+        <v>2381</v>
+      </c>
+      <c r="U10" s="26">
+        <v>2383</v>
+      </c>
+      <c r="V10" s="26">
+        <v>2389</v>
+      </c>
+      <c r="W10" s="27">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="30">
+        <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
+        <v>3778</v>
+      </c>
+      <c r="F11">
+        <v>1103515245</v>
+      </c>
+      <c r="G11" s="25">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26">
+        <v>467</v>
+      </c>
+      <c r="I11" s="26">
+        <v>479</v>
+      </c>
+      <c r="J11" s="26">
+        <v>487</v>
+      </c>
+      <c r="K11" s="26">
+        <v>491</v>
+      </c>
+      <c r="L11" s="26">
+        <v>499</v>
+      </c>
+      <c r="M11" s="26">
+        <v>503</v>
+      </c>
+      <c r="N11" s="26">
+        <v>509</v>
+      </c>
+      <c r="O11" s="26">
+        <v>521</v>
+      </c>
+      <c r="P11" s="26">
+        <v>523</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>541</v>
+      </c>
+      <c r="R11" s="26">
+        <v>2437</v>
+      </c>
+      <c r="S11" s="26">
+        <v>2441</v>
+      </c>
+      <c r="T11" s="26">
+        <v>2447</v>
+      </c>
+      <c r="U11" s="26">
+        <v>2459</v>
+      </c>
+      <c r="V11" s="26">
+        <v>2467</v>
+      </c>
+      <c r="W11" s="27">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f ca="1">MOD(B11*F11+F12,F13)</f>
+        <v>5331</v>
+      </c>
+      <c r="C12">
+        <f ca="1">MOD(B12,2)</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f ca="1">B12/F$13</f>
+        <v>0.162689208984375</v>
+      </c>
+      <c r="E12">
+        <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>12345</v>
+      </c>
+      <c r="G12" s="25">
+        <v>11</v>
+      </c>
+      <c r="H12" s="26">
+        <v>547</v>
+      </c>
+      <c r="I12" s="26">
+        <v>557</v>
+      </c>
+      <c r="J12" s="26">
+        <v>563</v>
+      </c>
+      <c r="K12" s="26">
+        <v>569</v>
+      </c>
+      <c r="L12" s="26">
+        <v>571</v>
+      </c>
+      <c r="M12" s="26">
+        <v>577</v>
+      </c>
+      <c r="N12" s="26">
+        <v>587</v>
+      </c>
+      <c r="O12" s="26">
+        <v>593</v>
+      </c>
+      <c r="P12" s="26">
+        <v>599</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>601</v>
+      </c>
+      <c r="R12" s="26">
+        <v>2539</v>
+      </c>
+      <c r="S12" s="26">
+        <v>2543</v>
+      </c>
+      <c r="T12" s="26">
+        <v>2549</v>
+      </c>
+      <c r="U12" s="26">
+        <v>2551</v>
+      </c>
+      <c r="V12" s="26">
+        <v>2557</v>
+      </c>
+      <c r="W12" s="27">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="31">
+        <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
+        <v>22544</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
+        <v>0.68798828125</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13" s="25">
+        <v>12</v>
+      </c>
+      <c r="H13" s="26">
+        <v>607</v>
+      </c>
+      <c r="I13" s="26">
+        <v>613</v>
+      </c>
+      <c r="J13" s="26">
+        <v>617</v>
+      </c>
+      <c r="K13" s="26">
+        <v>619</v>
+      </c>
+      <c r="L13" s="26">
+        <v>631</v>
+      </c>
+      <c r="M13" s="26">
+        <v>641</v>
+      </c>
+      <c r="N13" s="26">
+        <v>643</v>
+      </c>
+      <c r="O13" s="26">
+        <v>647</v>
+      </c>
+      <c r="P13" s="26">
+        <v>653</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>659</v>
+      </c>
+      <c r="R13" s="26">
+        <v>2621</v>
+      </c>
+      <c r="S13" s="26">
+        <v>2633</v>
+      </c>
+      <c r="T13" s="26">
+        <v>2647</v>
+      </c>
+      <c r="U13" s="26">
+        <v>2657</v>
+      </c>
+      <c r="V13" s="26">
+        <v>2659</v>
+      </c>
+      <c r="W13" s="27">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>3849</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.117462158203125</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>13</v>
+      </c>
+      <c r="H14" s="26">
+        <v>661</v>
+      </c>
+      <c r="I14" s="26">
+        <v>673</v>
+      </c>
+      <c r="J14" s="26">
+        <v>677</v>
+      </c>
+      <c r="K14" s="26">
+        <v>683</v>
+      </c>
+      <c r="L14" s="26">
+        <v>691</v>
+      </c>
+      <c r="M14" s="26">
+        <v>701</v>
+      </c>
+      <c r="N14" s="26">
+        <v>709</v>
+      </c>
+      <c r="O14" s="26">
+        <v>719</v>
+      </c>
+      <c r="P14" s="26">
+        <v>727</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>733</v>
+      </c>
+      <c r="R14" s="26">
+        <v>2689</v>
+      </c>
+      <c r="S14" s="26">
+        <v>2693</v>
+      </c>
+      <c r="T14" s="26">
+        <v>2699</v>
+      </c>
+      <c r="U14" s="26">
+        <v>2707</v>
+      </c>
+      <c r="V14" s="26">
+        <v>2711</v>
+      </c>
+      <c r="W14" s="27">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>21774</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66448974609375</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="25">
+        <v>14</v>
+      </c>
+      <c r="H15" s="26">
+        <v>739</v>
+      </c>
+      <c r="I15" s="26">
+        <v>743</v>
+      </c>
+      <c r="J15" s="26">
+        <v>751</v>
+      </c>
+      <c r="K15" s="26">
+        <v>757</v>
+      </c>
+      <c r="L15" s="26">
+        <v>761</v>
+      </c>
+      <c r="M15" s="26">
+        <v>769</v>
+      </c>
+      <c r="N15" s="26">
+        <v>773</v>
+      </c>
+      <c r="O15" s="26">
+        <v>787</v>
+      </c>
+      <c r="P15" s="26">
+        <v>797</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>809</v>
+      </c>
+      <c r="R15" s="26">
+        <v>2749</v>
+      </c>
+      <c r="S15" s="26">
+        <v>2753</v>
+      </c>
+      <c r="T15" s="26">
+        <v>2767</v>
+      </c>
+      <c r="U15" s="26">
+        <v>2777</v>
+      </c>
+      <c r="V15" s="26">
+        <v>2789</v>
+      </c>
+      <c r="W15" s="27">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>11055</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.337371826171875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="25">
+        <v>15</v>
+      </c>
+      <c r="H16" s="26">
+        <v>811</v>
+      </c>
+      <c r="I16" s="26">
+        <v>821</v>
+      </c>
+      <c r="J16" s="26">
+        <v>823</v>
+      </c>
+      <c r="K16" s="26">
+        <v>827</v>
+      </c>
+      <c r="L16" s="26">
+        <v>829</v>
+      </c>
+      <c r="M16" s="26">
+        <v>839</v>
+      </c>
+      <c r="N16" s="26">
+        <v>853</v>
+      </c>
+      <c r="O16" s="26">
+        <v>857</v>
+      </c>
+      <c r="P16" s="26">
+        <v>859</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>863</v>
+      </c>
+      <c r="R16" s="26">
+        <v>2833</v>
+      </c>
+      <c r="S16" s="26">
+        <v>2837</v>
+      </c>
+      <c r="T16" s="26">
+        <v>2843</v>
+      </c>
+      <c r="U16" s="26">
+        <v>2851</v>
+      </c>
+      <c r="V16" s="26">
+        <v>2857</v>
+      </c>
+      <c r="W16" s="27">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15" thickBot="1">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>25916</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.7908935546875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="32">
+        <v>16</v>
+      </c>
+      <c r="H17" s="28">
+        <v>877</v>
+      </c>
+      <c r="I17" s="28">
+        <v>881</v>
+      </c>
+      <c r="J17" s="28">
+        <v>883</v>
+      </c>
+      <c r="K17" s="28">
+        <v>887</v>
+      </c>
+      <c r="L17" s="28">
+        <v>907</v>
+      </c>
+      <c r="M17" s="28">
+        <v>911</v>
+      </c>
+      <c r="N17" s="28">
+        <v>919</v>
+      </c>
+      <c r="O17" s="28">
+        <v>929</v>
+      </c>
+      <c r="P17" s="28">
+        <v>937</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>941</v>
+      </c>
+      <c r="R17" s="28">
+        <v>2909</v>
+      </c>
+      <c r="S17" s="28">
+        <v>2917</v>
+      </c>
+      <c r="T17" s="28">
+        <v>2927</v>
+      </c>
+      <c r="U17" s="28">
+        <v>2939</v>
+      </c>
+      <c r="V17" s="28">
+        <v>2953</v>
+      </c>
+      <c r="W17" s="29">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>4805</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.146636962890625</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>13338</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.40704345703125</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f ca="1">2000+SUM(C12:C26)*25</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>19275</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.588226318359375</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f ca="1">ROUND(D15*5,0)-2</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="36">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>6440</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.196533203125</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f ca="1">MOD(15+SUM(C12:C33),12)+1</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="36">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>5697</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.173858642578125</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f ca="1">14+SUM(C29:C33)</f>
+        <v>16</v>
+      </c>
+      <c r="J22" s="36">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>30694</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.93670654296875</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1">_xlfn.XLOOKUP(H21,J20:J31,K20:K31)</f>
+        <v>March</v>
+      </c>
+      <c r="J23" s="36">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>20775</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.634002685546875</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J24" s="36">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>8148</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2486572265625</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>2016</f>
+        <v>2016</v>
+      </c>
+      <c r="J25" s="36">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>21885</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.667877197265625</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f ca="1">H25+H20</f>
+        <v>2017</v>
+      </c>
+      <c r="J26" s="36">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>11378</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.34722900390625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f ca="1">H26+1</f>
+        <v>2018</v>
+      </c>
+      <c r="J27" s="36">
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>22723</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.693450927734375</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f ca="1">H26+3</f>
+        <v>2020</v>
+      </c>
+      <c r="J28" s="36">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>25920</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.791015625</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="36">
+        <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>19577</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.597442626953125</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J30" s="36">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>7614</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.23236083984375</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="36">
+        <v>12</v>
+      </c>
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>15903</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.485321044921875</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="31"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="31">
+        <f t="shared" ca="1" si="3"/>
+        <v>5484</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1673583984375</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C158F2-D174-413A-9F2B-486C42FCAD67}">
+  <dimension ref="B1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1">
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C289946819CFF499E91D197BC975371" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de2bd5e5ea5c6a265058c5efa4ddba81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cca9fd2d-ef84-45c9-8063-8f4bd4c29606" xmlns:ns3="18557d39-01b8-4d71-9479-3fad465290ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e49ffdde20fbfa7e998ce41529926de" ns2:_="" ns3:_="">
+    <xsd:import namespace="cca9fd2d-ef84-45c9-8063-8f4bd4c29606"/>
+    <xsd:import namespace="18557d39-01b8-4d71-9479-3fad465290ae"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cca9fd2d-ef84-45c9-8063-8f4bd4c29606" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="50da90ab-5b1a-4986-95e0-cc9abc033a4c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18557d39-01b8-4d71-9479-3fad465290ae" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cca9fd2d-ef84-45c9-8063-8f4bd4c29606">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B45BCDCA-B158-4E89-BF03-8A45455B07C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cca9fd2d-ef84-45c9-8063-8f4bd4c29606"/>
+    <ds:schemaRef ds:uri="18557d39-01b8-4d71-9479-3fad465290ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{454AD3E4-F790-402D-B12B-9C20629F0D77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40BAD010-3473-43F1-A94E-36D2C645882C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cca9fd2d-ef84-45c9-8063-8f4bd4c29606"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>